--- a/GroupAssignment5.xlsx
+++ b/GroupAssignment5.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelmelhem/Documents/College/Senior Second Semester/CS411/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Li\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32AF2DBB-4A77-AC4A-9815-BFCCE11F8103}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{401E6C5D-6EB3-FB4A-9261-7217A0E2AAA2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Form Field" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="UI Validation" sheetId="3" r:id="rId3"/>
     <sheet name="Remediation" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="98">
   <si>
     <t>Page name</t>
   </si>
@@ -196,12 +195,138 @@
   </si>
   <si>
     <t>Michael/Ryan</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Read/Write</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>TestID</t>
+  </si>
+  <si>
+    <t>User's Saved Recipes</t>
+  </si>
+  <si>
+    <t>Recipes</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>RecipeList</t>
+  </si>
+  <si>
+    <t>User(Email)</t>
+  </si>
+  <si>
+    <t>Recipe_id</t>
+  </si>
+  <si>
+    <t>relation_id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t>Recipe</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar </t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar (image_field)</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>String &lt;255</t>
+  </si>
+  <si>
+    <t>String &gt; 9</t>
+  </si>
+  <si>
+    <t>ManytoMany Filed (Django)</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>data.1</t>
+  </si>
+  <si>
+    <t>data.2</t>
+  </si>
+  <si>
+    <t>data.9</t>
+  </si>
+  <si>
+    <t>data.3</t>
+  </si>
+  <si>
+    <t>data.4</t>
+  </si>
+  <si>
+    <t>data.5</t>
+  </si>
+  <si>
+    <t>data.6</t>
+  </si>
+  <si>
+    <t>data.7</t>
+  </si>
+  <si>
+    <t>data.8</t>
+  </si>
+  <si>
+    <t>data.10</t>
+  </si>
+  <si>
+    <t>data.11</t>
+  </si>
+  <si>
+    <t>Sform.writeSQL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -546,21 +671,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BE19B0-D316-F346-BFD1-0F1F2953D223}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="5" max="5" width="51.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="51.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -600,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -620,7 +745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -640,7 +765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -660,7 +785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -680,7 +805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -700,7 +825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -720,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -740,7 +865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -760,7 +885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -786,32 +911,352 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DFEA63-53DA-D045-BA4A-B451B9ABD23F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360F5AA4-6019-B843-866A-4564DD83CEFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -828,7 +1273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -845,7 +1290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -862,7 +1307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -879,7 +1324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -896,7 +1341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -919,21 +1364,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86528528-FEB3-8E48-B748-605D1994C321}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="36.5" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -950,7 +1395,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -967,7 +1412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -984,7 +1429,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1001,7 +1446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
